--- a/0-Update/Templates/BC06_BaoCaoThuTien_TongHop.xlsx
+++ b/0-Update/Templates/BC06_BaoCaoThuTien_TongHop.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\0_QuanLyHocVien\O2S_QuanLyHocVien\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\O2S_StudentManagement\trunk\O2S_QuanLyHocVien\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="465" windowWidth="27735" windowHeight="17535" tabRatio="500"/>
+    <workbookView xWindow="1065" yWindow="465" windowWidth="27735" windowHeight="16440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="BCHN" sheetId="1" r:id="rId1"/>
@@ -44,9 +44,6 @@
     <t>&amp;=[DATA1].STT</t>
   </si>
   <si>
-    <t>&amp;=[DATA].TENTRUNGTAM</t>
-  </si>
-  <si>
     <t>&amp;=[DATA].DIACHITRUNGTAM</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>BÁO CÁO THU TIỀN TỔNG HỢP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Người Lập Biểu          Thủ Quỹ           Kế Toán        Giám Đốc Trung Tâm</t>
   </si>
 </sst>
 </file>
@@ -84,7 +84,7 @@
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="hh:mm\ dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -94,24 +94,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -121,40 +104,46 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,24 +152,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79995117038483843"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -229,73 +212,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -578,98 +588,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="110" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="24.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" s="15" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="18" customFormat="1" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="20"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="17" t="s">
+      <c r="B2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="13" t="s">
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" s="4" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    </row>
+    <row r="8" spans="1:4" s="10" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="16">
+      <c r="B8" s="27"/>
+      <c r="C8" s="28">
         <f>SUM(C7:C7)</f>
         <v>0</v>
       </c>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="19" t="s">
+      <c r="D8" s="29"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" s="20" t="s">
         <v>3</v>
       </c>
+      <c r="D10" s="20"/>
+    </row>
+    <row r="11" spans="1:4" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="C10:D10"/>
     <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
